--- a/outputs-HGR-r202/f__Acidaminococcaceae.xlsx
+++ b/outputs-HGR-r202/f__Acidaminococcaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G158"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -524,6 +534,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -551,6 +566,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -578,6 +598,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -605,6 +630,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -632,6 +662,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -659,6 +694,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -686,6 +726,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -713,6 +758,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -740,6 +790,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -767,6 +822,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -794,6 +854,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -821,6 +886,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -848,6 +918,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -875,6 +950,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -902,6 +982,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -929,6 +1014,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -956,6 +1046,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -983,6 +1078,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1010,6 +1110,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1037,6 +1142,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1064,6 +1174,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1091,6 +1206,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1118,6 +1238,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1145,6 +1270,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1172,6 +1302,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1199,6 +1334,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1226,6 +1366,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1253,6 +1398,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1280,6 +1430,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1307,6 +1462,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1334,6 +1494,11 @@
           <t>g__Succiniclasticum</t>
         </is>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>g__Succiniclasticum</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1361,6 +1526,11 @@
           <t>g__Succiniclasticum</t>
         </is>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>g__Succiniclasticum</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1388,6 +1558,11 @@
           <t>g__Succiniclasticum</t>
         </is>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>g__Succiniclasticum</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1415,6 +1590,11 @@
           <t>g__Succiniclasticum</t>
         </is>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>g__Succiniclasticum</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1442,6 +1622,11 @@
           <t>g__Succiniclasticum</t>
         </is>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>g__Succiniclasticum</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1469,6 +1654,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1496,6 +1686,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1523,6 +1718,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1550,6 +1750,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1577,6 +1782,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1604,6 +1814,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1631,6 +1846,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1658,6 +1878,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1685,6 +1910,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1712,6 +1942,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1739,6 +1974,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1766,6 +2006,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1793,6 +2038,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1820,6 +2070,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1847,6 +2102,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1874,6 +2134,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1901,6 +2166,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1928,6 +2198,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1955,6 +2230,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1982,6 +2262,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2009,6 +2294,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -2036,6 +2326,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -2063,6 +2358,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -2090,6 +2390,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -2117,6 +2422,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -2144,6 +2454,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -2171,6 +2486,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -2198,6 +2518,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2225,6 +2550,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -2252,6 +2582,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -2279,6 +2614,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -2306,6 +2646,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -2333,6 +2678,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -2360,6 +2710,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -2387,6 +2742,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -2414,6 +2774,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -2441,6 +2806,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -2468,6 +2838,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -2495,6 +2870,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -2522,6 +2902,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -2549,6 +2934,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -2576,6 +2966,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -2603,6 +2998,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -2630,6 +3030,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -2657,6 +3062,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -2684,6 +3094,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -2711,6 +3126,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -2738,6 +3158,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -2765,6 +3190,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -2792,6 +3222,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -2819,6 +3254,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -2846,6 +3286,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -2873,6 +3318,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -2900,6 +3350,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -2927,6 +3382,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -2954,6 +3414,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -2981,6 +3446,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -3008,6 +3478,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -3035,6 +3510,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -3062,6 +3542,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -3089,6 +3574,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -3116,6 +3606,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -3143,6 +3638,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -3170,6 +3670,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -3197,6 +3702,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -3224,6 +3734,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -3251,6 +3766,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -3278,6 +3798,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -3305,6 +3830,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -3332,6 +3862,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -3359,6 +3894,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -3386,6 +3926,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -3413,6 +3958,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -3440,6 +3990,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -3467,6 +4022,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -3494,6 +4054,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -3521,6 +4086,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -3548,6 +4118,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -3575,6 +4150,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -3602,6 +4182,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -3629,6 +4214,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -3656,6 +4246,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -3683,6 +4278,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -3710,6 +4310,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -3737,6 +4342,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -3764,6 +4374,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -3791,6 +4406,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -3818,6 +4438,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -3845,6 +4470,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -3872,6 +4502,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -3899,6 +4534,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -3926,6 +4566,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -3953,6 +4598,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -3980,6 +4630,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -4007,6 +4662,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -4034,6 +4694,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -4061,6 +4726,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -4088,6 +4758,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -4115,6 +4790,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -4142,6 +4822,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -4169,6 +4854,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -4196,6 +4886,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -4223,6 +4918,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -4250,6 +4950,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -4277,6 +4982,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -4304,6 +5014,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -4331,6 +5046,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -4358,6 +5078,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -4385,6 +5110,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -4412,6 +5142,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -4439,6 +5174,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -4466,6 +5206,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -4493,6 +5238,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -4520,6 +5270,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -4547,6 +5302,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -4574,6 +5334,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -4601,6 +5366,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -4628,6 +5398,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -4655,6 +5430,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -4682,6 +5462,11 @@
           <t>g__Acidaminococcus</t>
         </is>
       </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -4705,6 +5490,11 @@
         <v>0.99988108718901</v>
       </c>
       <c r="G158" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
         <is>
           <t>g__Acidaminococcus</t>
         </is>

--- a/outputs-HGR-r202/f__Acidaminococcaceae.xlsx
+++ b/outputs-HGR-r202/f__Acidaminococcaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,55 +479,55 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11036.fa</t>
+          <t>even_MAG-GUT10270.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02206818267513485</v>
+        <v>0.9999167463510362</v>
       </c>
       <c r="C2" t="n">
-        <v>2.219843199994439e-14</v>
+        <v>4.693366123241517e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>2.599194957076571e-12</v>
+        <v>7.343697899531582e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9779318173222437</v>
+        <v>9.816669921606161e-06</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9779318173222437</v>
+        <v>0.9999167463510362</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>g__Succiniclasticum</t>
+          <t>g__Acidaminococcus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>g__Succiniclasticum</t>
+          <t>g__Acidaminococcus</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17473.fa</t>
+          <t>even_MAG-GUT10398.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9994843782092484</v>
+        <v>0.9998149418024646</v>
       </c>
       <c r="C3" t="n">
-        <v>5.633290853839421e-14</v>
+        <v>5.943869584675891e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>6.65426942636038e-05</v>
+        <v>0.0001624282543079852</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0004490790964317609</v>
+        <v>2.262994316812436e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9994843782092484</v>
+        <v>0.9998149418024646</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -543,23 +543,23 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT20639.fa</t>
+          <t>even_MAG-GUT10625.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998868801189875</v>
+        <v>0.9981407029780862</v>
       </c>
       <c r="C4" t="n">
-        <v>2.220962256796756e-14</v>
+        <v>2.882311828681757e-11</v>
       </c>
       <c r="D4" t="n">
-        <v>3.649229304314232e-08</v>
+        <v>3.19481570394987e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0001130833886972138</v>
+        <v>0.001827348836051371</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9998868801189875</v>
+        <v>0.9981407029780862</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -575,119 +575,119 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23387.fa</t>
+          <t>even_MAG-GUT11036.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999896949976613</v>
+        <v>0.02206818267513485</v>
       </c>
       <c r="C5" t="n">
-        <v>2.220444317717479e-14</v>
+        <v>2.219843199994439e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>1.502731237363909e-08</v>
+        <v>2.599194957076571e-12</v>
       </c>
       <c r="E5" t="n">
-        <v>1.028997500416505e-05</v>
+        <v>0.9779318173222437</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999896949976613</v>
+        <v>0.9779318173222437</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>g__Acidaminococcus</t>
+          <t>g__Succiniclasticum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>g__Acidaminococcus</t>
+          <t>g__Succiniclasticum</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25650.fa</t>
+          <t>even_MAG-GUT11210.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1102819135717665</v>
+        <v>0.9994245946213911</v>
       </c>
       <c r="C6" t="n">
-        <v>2.219997110515635e-14</v>
+        <v>2.220149923733597e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>2.475894038578974e-11</v>
+        <v>0.0002886310973042533</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8897180864034524</v>
+        <v>0.0002867742812825304</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8897180864034524</v>
+        <v>0.9994245946213911</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>g__Succiniclasticum</t>
+          <t>g__Acidaminococcus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>g__Succiniclasticum</t>
+          <t>g__Acidaminococcus</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2865.fa</t>
+          <t>even_MAG-GUT11332.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.003128829508652481</v>
+        <v>0.999889497932127</v>
       </c>
       <c r="C7" t="n">
-        <v>9.737170853181362e-13</v>
+        <v>5.142689536263191e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>1.301083403682041e-11</v>
+        <v>8.185757838441646e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9968711704773631</v>
+        <v>2.864448943710019e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9968711704773631</v>
+        <v>0.999889497932127</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>g__Succiniclasticum</t>
+          <t>g__Acidaminococcus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>g__Succiniclasticum</t>
+          <t>g__Acidaminococcus</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29878.fa</t>
+          <t>even_MAG-GUT11435.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999881273920165</v>
+        <v>0.999940077868206</v>
       </c>
       <c r="C8" t="n">
-        <v>2.220748202895069e-14</v>
+        <v>2.220423065283195e-14</v>
       </c>
       <c r="D8" t="n">
-        <v>1.325603277151793e-11</v>
+        <v>2.142121239570225e-07</v>
       </c>
       <c r="E8" t="n">
-        <v>1.187259470533004e-05</v>
+        <v>5.970791964791943e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999881273920165</v>
+        <v>0.999940077868206</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -703,23 +703,23 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31785.fa</t>
+          <t>even_MAG-GUT13045.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9460786189849303</v>
+        <v>0.9997408574564038</v>
       </c>
       <c r="C9" t="n">
-        <v>1.156507211435922e-09</v>
+        <v>3.579028025950569e-14</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0006660563978448891</v>
+        <v>8.534074082257816e-07</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05325532346071763</v>
+        <v>0.0002582891361522645</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9460786189849303</v>
+        <v>0.9997408574564038</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -735,23 +735,23 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33530.fa</t>
+          <t>even_MAG-GUT14741.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8595533196802992</v>
+        <v>0.9997408574564038</v>
       </c>
       <c r="C10" t="n">
-        <v>2.89086987171913e-10</v>
+        <v>3.579028025950569e-14</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0002797456602207889</v>
+        <v>8.534074082257816e-07</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1401669343703931</v>
+        <v>0.0002582891361522645</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8595533196802992</v>
+        <v>0.9997408574564038</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -767,183 +767,183 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34206.fa</t>
+          <t>even_MAG-GUT15742.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.23260954256501e-09</v>
+        <v>0.9999688464898487</v>
       </c>
       <c r="C11" t="n">
-        <v>5.549466319253783e-12</v>
+        <v>2.220433359239321e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>2.138137592051205e-11</v>
+        <v>2.551052076463725e-07</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999999977404597</v>
+        <v>3.089840492141906e-05</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999999977404597</v>
+        <v>0.9999688464898487</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>g__Succiniclasticum</t>
+          <t>g__Acidaminococcus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>g__Succiniclasticum</t>
+          <t>g__Acidaminococcus</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34421.fa</t>
+          <t>even_MAG-GUT1677.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.825114566993773e-10</v>
+        <v>0.9999289052119777</v>
       </c>
       <c r="C12" t="n">
-        <v>4.968175857707348e-11</v>
+        <v>2.376624732753405e-13</v>
       </c>
       <c r="D12" t="n">
-        <v>1.452043836689172e-11</v>
+        <v>5.902684072854799e-06</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999999994532863</v>
+        <v>6.519210371163198e-05</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999999994532863</v>
+        <v>0.9999289052119777</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>g__Succiniclasticum</t>
+          <t>g__Acidaminococcus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>g__Succiniclasticum</t>
+          <t>g__Acidaminococcus</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34513.fa</t>
+          <t>even_MAG-GUT17255.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.181614532860218e-11</v>
+        <v>0.9991433354154209</v>
       </c>
       <c r="C13" t="n">
-        <v>1.6835001734866e-10</v>
+        <v>2.532696994352815e-14</v>
       </c>
       <c r="D13" t="n">
-        <v>6.543554329048422e-12</v>
+        <v>0.0007598386462395817</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999999997332903</v>
+        <v>9.682593831419194e-05</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999999997332903</v>
+        <v>0.9991433354154209</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>g__Succiniclasticum</t>
+          <t>g__Acidaminococcus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>g__Succiniclasticum</t>
+          <t>g__Acidaminococcus</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34778.fa</t>
+          <t>even_MAG-GUT17473.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.825114566993773e-10</v>
+        <v>0.9994843782092484</v>
       </c>
       <c r="C14" t="n">
-        <v>4.968175857707348e-11</v>
+        <v>5.633290853839421e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>1.452043836689172e-11</v>
+        <v>6.65426942636038e-05</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999999994532863</v>
+        <v>0.0004490790964317609</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999999994532863</v>
+        <v>0.9994843782092484</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>g__Succiniclasticum</t>
+          <t>g__Acidaminococcus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>g__Succiniclasticum</t>
+          <t>g__Acidaminococcus</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35231.fa</t>
+          <t>even_MAG-GUT17515.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.851963945672046e-10</v>
+        <v>0.9998822617413038</v>
       </c>
       <c r="C15" t="n">
-        <v>3.542993222873188e-10</v>
+        <v>9.029138436899003e-14</v>
       </c>
       <c r="D15" t="n">
-        <v>9.375275434122029e-11</v>
+        <v>1.781750473616797e-05</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999999993667515</v>
+        <v>9.992075386989586e-05</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999999993667515</v>
+        <v>0.9998822617413038</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>g__Succiniclasticum</t>
+          <t>g__Acidaminococcus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>g__Succiniclasticum</t>
+          <t>g__Acidaminococcus</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43248.fa</t>
+          <t>even_MAG-GUT20287.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9907597604572133</v>
+        <v>0.9992104480091064</v>
       </c>
       <c r="C16" t="n">
-        <v>2.219787020177034e-14</v>
+        <v>8.762767425037942e-14</v>
       </c>
       <c r="D16" t="n">
-        <v>1.268385507422192e-05</v>
+        <v>2.434889652657701e-05</v>
       </c>
       <c r="E16" t="n">
-        <v>0.009227555687690341</v>
+        <v>0.0007652030942793135</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9907597604572133</v>
+        <v>0.9992104480091064</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -959,87 +959,87 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51748.fa</t>
+          <t>even_MAG-GUT20540.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.04444488743791276</v>
+        <v>0.9999567081425293</v>
       </c>
       <c r="C17" t="n">
-        <v>2.219877614923664e-14</v>
+        <v>2.220429302348029e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>1.708059132909907e-11</v>
+        <v>1.823476313096593e-06</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9555551125449845</v>
+        <v>4.146838113541887e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9555551125449845</v>
+        <v>0.9999567081425293</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>g__Succiniclasticum</t>
+          <t>g__Acidaminococcus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>g__Succiniclasticum</t>
+          <t>g__Acidaminococcus</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51766.fa</t>
+          <t>even_MAG-GUT20603.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01774466869650133</v>
+        <v>0.9992891303171125</v>
       </c>
       <c r="C18" t="n">
-        <v>8.393693126370753e-14</v>
+        <v>2.220090311664508e-14</v>
       </c>
       <c r="D18" t="n">
-        <v>3.332006866845014e-10</v>
+        <v>7.000356478713611e-07</v>
       </c>
       <c r="E18" t="n">
-        <v>0.982255330970214</v>
+        <v>0.0007101696472175633</v>
       </c>
       <c r="F18" t="n">
-        <v>0.982255330970214</v>
+        <v>0.9992891303171125</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>g__Succiniclasticum</t>
+          <t>g__Acidaminococcus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>g__Succiniclasticum</t>
+          <t>g__Acidaminococcus</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51926.fa</t>
+          <t>even_MAG-GUT20639.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9969477155389243</v>
+        <v>0.9998868801189875</v>
       </c>
       <c r="C19" t="n">
-        <v>5.460951974371748e-13</v>
+        <v>2.220962256796756e-14</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0011895936625251</v>
+        <v>3.649229304314232e-08</v>
       </c>
       <c r="E19" t="n">
-        <v>0.00186269079800437</v>
+        <v>0.0001130833886972138</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9969477155389243</v>
+        <v>0.9998868801189875</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1055,23 +1055,23 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5676.fa</t>
+          <t>even_MAG-GUT2203.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.999268027039352</v>
+        <v>0.9998947301832113</v>
       </c>
       <c r="C20" t="n">
-        <v>8.726423627160026e-14</v>
+        <v>4.962034783688248e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>1.414914797013409e-06</v>
+        <v>8.625467073372781e-05</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0007305580457636604</v>
+        <v>1.901514600523415e-05</v>
       </c>
       <c r="F20" t="n">
-        <v>0.999268027039352</v>
+        <v>0.9998947301832113</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1087,119 +1087,119 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61708.fa</t>
+          <t>even_MAG-GUT23387.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0181183747687497</v>
+        <v>0.9999896949976613</v>
       </c>
       <c r="C21" t="n">
-        <v>7.610616752904476e-14</v>
+        <v>2.220444317717479e-14</v>
       </c>
       <c r="D21" t="n">
-        <v>1.096119884466263e-09</v>
+        <v>1.502731237363909e-08</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9818816241350543</v>
+        <v>1.028997500416505e-05</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9818816241350543</v>
+        <v>0.9999896949976613</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>g__Succiniclasticum</t>
+          <t>g__Acidaminococcus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>g__Succiniclasticum</t>
+          <t>g__Acidaminococcus</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61749.fa</t>
+          <t>even_MAG-GUT24052.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.04111435387385031</v>
+        <v>0.9996804772822409</v>
       </c>
       <c r="C22" t="n">
-        <v>2.219870961837567e-14</v>
+        <v>5.713325234048168e-12</v>
       </c>
       <c r="D22" t="n">
-        <v>4.904595778398764e-10</v>
+        <v>0.0002092709577899741</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9588856456356679</v>
+        <v>0.0001102517542558169</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9588856456356679</v>
+        <v>0.9996804772822409</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>g__Succiniclasticum</t>
+          <t>g__Acidaminococcus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>g__Succiniclasticum</t>
+          <t>g__Acidaminococcus</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62393.fa</t>
+          <t>even_MAG-GUT25048.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0408504462138496</v>
+        <v>0.9998627434904792</v>
       </c>
       <c r="C23" t="n">
-        <v>2.219860792147529e-14</v>
+        <v>2.22038699709706e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>4.974753331303171e-10</v>
+        <v>6.694662324627953e-07</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9591495532886529</v>
+        <v>0.0001365870432662034</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9591495532886529</v>
+        <v>0.9998627434904792</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>g__Succiniclasticum</t>
+          <t>g__Acidaminococcus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>g__Succiniclasticum</t>
+          <t>g__Acidaminococcus</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80385.fa</t>
+          <t>even_MAG-GUT25340.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9990138844781207</v>
+        <v>0.9997986496256838</v>
       </c>
       <c r="C24" t="n">
-        <v>2.363150928801857e-12</v>
+        <v>8.474826358881275e-13</v>
       </c>
       <c r="D24" t="n">
-        <v>1.539524736369235e-05</v>
+        <v>0.0001152918859087697</v>
       </c>
       <c r="E24" t="n">
-        <v>0.00097072027215245</v>
+        <v>8.605848755993505e-05</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9990138844781207</v>
+        <v>0.9997986496256838</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1215,87 +1215,87 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80453.fa</t>
+          <t>even_MAG-GUT25650.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9986408142676126</v>
+        <v>0.1102819135717665</v>
       </c>
       <c r="C25" t="n">
-        <v>6.754704763242991e-14</v>
+        <v>2.219997110515635e-14</v>
       </c>
       <c r="D25" t="n">
-        <v>2.513725937762668e-05</v>
+        <v>2.475894038578974e-11</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001334048472942181</v>
+        <v>0.8897180864034524</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9986408142676126</v>
+        <v>0.8897180864034524</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>g__Acidaminococcus</t>
+          <t>g__Succiniclasticum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>g__Acidaminococcus</t>
+          <t>g__Succiniclasticum</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80771.fa</t>
+          <t>even_MAG-GUT2865.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.998124557356629</v>
+        <v>0.003128829508652481</v>
       </c>
       <c r="C26" t="n">
-        <v>1.376563343047951e-13</v>
+        <v>9.737170853181362e-13</v>
       </c>
       <c r="D26" t="n">
-        <v>1.893337584665968e-05</v>
+        <v>1.301083403682041e-11</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001856509267386789</v>
+        <v>0.9968711704773631</v>
       </c>
       <c r="F26" t="n">
-        <v>0.998124557356629</v>
+        <v>0.9968711704773631</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>g__Acidaminococcus</t>
+          <t>g__Succiniclasticum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>g__Acidaminococcus</t>
+          <t>g__Succiniclasticum</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81946.fa</t>
+          <t>even_MAG-GUT29189.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9980106478041086</v>
+        <v>0.9997484528580347</v>
       </c>
       <c r="C27" t="n">
-        <v>3.821948041876634e-12</v>
+        <v>1.118068846520104e-13</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0001645216705369936</v>
+        <v>1.162773185327883e-05</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001824830521532375</v>
+        <v>0.0002399194100001263</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9980106478041086</v>
+        <v>0.9997484528580347</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1311,94 +1311,4510 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85904.fa</t>
+          <t>even_MAG-GUT29214.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1182762966154791</v>
+        <v>0.9996741181571335</v>
       </c>
       <c r="C28" t="n">
-        <v>2.22000484322412e-14</v>
+        <v>1.825720197303111e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>1.625809148409012e-11</v>
+        <v>2.357950019386363e-06</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8817237033682406</v>
+        <v>0.0003235238926645327</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8817237033682406</v>
+        <v>0.9996741181571335</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>g__Succiniclasticum</t>
+          <t>g__Acidaminococcus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>g__Succiniclasticum</t>
+          <t>g__Acidaminococcus</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85919.fa</t>
+          <t>even_MAG-GUT29221.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.002115819934865142</v>
+        <v>0.9997533493075013</v>
       </c>
       <c r="C29" t="n">
-        <v>7.012652560973925e-12</v>
+        <v>1.150820326696715e-13</v>
       </c>
       <c r="D29" t="n">
-        <v>8.144370089826739e-10</v>
+        <v>1.161923261145632e-05</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9978841792436851</v>
+        <v>0.0002350314597720895</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9978841792436851</v>
+        <v>0.9997533493075013</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>g__Succiniclasticum</t>
+          <t>g__Acidaminococcus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>g__Succiniclasticum</t>
+          <t>g__Acidaminococcus</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT29476.fa</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.9994463636789185</v>
+      </c>
+      <c r="C30" t="n">
+        <v>6.164172041379625e-14</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0001341334638603953</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0004195028571594754</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9994463636789185</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT29878.fa</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.9999881273920165</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.220748202895069e-14</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.325603277151793e-11</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.187259470533004e-05</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9999881273920165</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT31785.fa</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.9460786189849303</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.156507211435922e-09</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.0006660563978448891</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.05325532346071763</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9460786189849303</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT32691.fa</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.9999770833985989</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.023782212536187e-13</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5.204919416701788e-06</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.771168188192249e-05</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9999770833985989</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT33530.fa</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.8595533196802992</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2.89086987171913e-10</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.0002797456602207889</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.1401669343703931</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.8595533196802992</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT33657.fa</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.9997380490711427</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2.220342478905791e-14</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.903956885706482e-06</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0002600469719495128</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9997380490711427</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT34206.fa</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2.23260954256501e-09</v>
+      </c>
+      <c r="C36" t="n">
+        <v>5.549466319253783e-12</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2.138137592051205e-11</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.9999999977404597</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9999999977404597</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>g__Succiniclasticum</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>g__Succiniclasticum</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT34421.fa</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>4.825114566993773e-10</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4.968175857707348e-11</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.452043836689172e-11</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.9999999994532863</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9999999994532863</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>g__Succiniclasticum</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>g__Succiniclasticum</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT34513.fa</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>9.181614532860218e-11</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.6835001734866e-10</v>
+      </c>
+      <c r="D38" t="n">
+        <v>6.543554329048422e-12</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.9999999997332903</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9999999997332903</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>g__Succiniclasticum</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>g__Succiniclasticum</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT34778.fa</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>4.825114566993773e-10</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4.968175857707348e-11</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.452043836689172e-11</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.9999999994532863</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.9999999994532863</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>g__Succiniclasticum</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>g__Succiniclasticum</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT35231.fa</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1.851963945672046e-10</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3.542993222873188e-10</v>
+      </c>
+      <c r="D40" t="n">
+        <v>9.375275434122029e-11</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.9999999993667515</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9999999993667515</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>g__Succiniclasticum</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>g__Succiniclasticum</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT37976.fa</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.9999149767786383</v>
+      </c>
+      <c r="C41" t="n">
+        <v>9.321856395647898e-14</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5.848353035464228e-05</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2.653969091385405e-05</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.9999149767786383</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43152.fa</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.999725148589279</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3.201066222794996e-14</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2.91835959617111e-05</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0002456678147272141</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.999725148589279</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43233.fa</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.9999407243226723</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2.857337149607438e-14</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4.686459154154463e-06</v>
+      </c>
+      <c r="E43" t="n">
+        <v>5.458921814487051e-05</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9999407243226723</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43248.fa</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.9907597604572133</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2.219787020177034e-14</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.268385507422192e-05</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.009227555687690341</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.9907597604572133</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43329.fa</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.9983749848935417</v>
+      </c>
+      <c r="C45" t="n">
+        <v>8.85260508021193e-12</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.000267489226705548</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.001357525870900153</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.9983749848935417</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43835.fa</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.9992576405237052</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.003072687248736e-12</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.0005847863400986354</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0001575731351929341</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9992576405237052</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT45903.fa</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.9992800923809085</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2.220177072946363e-14</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3.719820012956774e-05</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0006827094189395272</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.9992800923809085</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT47875.fa</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.9994724555105761</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2.065967473947304e-12</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.0004676793282133933</v>
+      </c>
+      <c r="E48" t="n">
+        <v>5.986515914459547e-05</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9994724555105761</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT51748.fa</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.04444488743791276</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2.219877614923664e-14</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.708059132909907e-11</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.9555551125449845</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.9555551125449845</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>g__Succiniclasticum</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>g__Succiniclasticum</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT51766.fa</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.01774466869650133</v>
+      </c>
+      <c r="C50" t="n">
+        <v>8.393693126370753e-14</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3.332006866845014e-10</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.982255330970214</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.982255330970214</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>g__Succiniclasticum</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>g__Succiniclasticum</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT51926.fa</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.9969477155389243</v>
+      </c>
+      <c r="C51" t="n">
+        <v>5.460951974371748e-13</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.0011895936625251</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.00186269079800437</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.9969477155389243</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT51928.fa</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.9988195504849737</v>
+      </c>
+      <c r="C52" t="n">
+        <v>6.37945519494544e-14</v>
+      </c>
+      <c r="D52" t="n">
+        <v>8.005538014548005e-05</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.00110039413481692</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.9988195504849737</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT5341.fa</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.9997312066197657</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.034481047854286e-12</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.125364952112973e-05</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.0002575397296789033</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.9997312066197657</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT56559.fa</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.9999446201807451</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2.220442251965162e-14</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.17600896574467e-05</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4.361972957531063e-05</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.9999446201807451</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT56604.fa</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.9998469561743009</v>
+      </c>
+      <c r="C55" t="n">
+        <v>3.271772670818565e-14</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.434801305075944e-07</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.0001528003455359963</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.9998469561743009</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT5676.fa</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.999268027039352</v>
+      </c>
+      <c r="C56" t="n">
+        <v>8.726423627160026e-14</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.414914797013409e-06</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.0007305580457636604</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.999268027039352</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57066.fa</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.9999366413899848</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2.220415905654663e-14</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4.591071172797548e-05</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.744789826498395e-05</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.9999366413899848</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57190.fa</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.9999909878710018</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2.220458809126651e-14</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.970960110103979e-06</v>
+      </c>
+      <c r="E58" t="n">
+        <v>7.041168865829463e-06</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.9999909878710018</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57346.fa</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.9998469561743009</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3.271772670818565e-14</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2.434801305075944e-07</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0001528003455359963</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.9998469561743009</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57398.fa</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.9999388326646803</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2.220420843543698e-14</v>
+      </c>
+      <c r="D60" t="n">
+        <v>8.81417124681554e-06</v>
+      </c>
+      <c r="E60" t="n">
+        <v>5.235316405063112e-05</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.9999388326646803</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57498.fa</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.9999094445087391</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2.22041102118842e-14</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.956291031335156e-06</v>
+      </c>
+      <c r="E61" t="n">
+        <v>8.85992002072708e-05</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.9999094445087391</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57542.fa</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.9997967963301727</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2.220350008089898e-14</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1.532348959233325e-05</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.0001878801802128192</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.9997967963301727</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57592.fa</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.9999108863218542</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2.22040896329656e-14</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.352295358647589e-06</v>
+      </c>
+      <c r="E63" t="n">
+        <v>8.776138276504011e-05</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.9999108863218542</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57771.fa</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.9999256473283843</v>
+      </c>
+      <c r="C64" t="n">
+        <v>4.283976545202891e-14</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4.658988941231278e-06</v>
+      </c>
+      <c r="E64" t="n">
+        <v>6.96936826317443e-05</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.9999256473283843</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57988.fa</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.9998556597675922</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3.453926710746804e-13</v>
+      </c>
+      <c r="D65" t="n">
+        <v>6.815010953990672e-06</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.0001375252211083472</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.9998556597675922</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT58133.fa</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.999213705475289</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2.864168633419658e-12</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3.806447699780723e-05</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.0007482300448489848</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.999213705475289</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT58310.fa</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.9997642779213328</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4.985977341225055e-14</v>
+      </c>
+      <c r="D67" t="n">
+        <v>4.930605338093222e-05</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0001864160252362836</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.9997642779213328</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT58672.fa</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.9989487010565767</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2.219877870574107e-14</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.0009264619141557933</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.0001248370292453058</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.9989487010565767</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT59502.fa</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.9999334256608452</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2.220415472512558e-14</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.2998091404409e-06</v>
+      </c>
+      <c r="E69" t="n">
+        <v>6.527452999209664e-05</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.9999334256608452</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT59576.fa</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.9997417840775519</v>
+      </c>
+      <c r="C70" t="n">
+        <v>5.43071295969931e-14</v>
+      </c>
+      <c r="D70" t="n">
+        <v>3.218003337564227e-06</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.0002549979190563266</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.9997417840775519</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT5959.fa</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.9996786979134822</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2.220284643641839e-14</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.0001423611835704604</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.0001789409029251088</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.9996786979134822</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT59626.fa</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.9999446201807451</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2.220442251965162e-14</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.17600896574467e-05</v>
+      </c>
+      <c r="E72" t="n">
+        <v>4.361972957531063e-05</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.9999446201807451</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60077.fa</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.9999225983389867</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2.22041332690858e-14</v>
+      </c>
+      <c r="D73" t="n">
+        <v>6.388196215466795e-07</v>
+      </c>
+      <c r="E73" t="n">
+        <v>7.676284136949326e-05</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.9999225983389867</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60123.fa</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.9939446391743056</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.214232829061366e-13</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3.532542689781572e-06</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.006051828282883078</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.9939446391743056</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60157.fa</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.9998258974482963</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2.707226532766636e-14</v>
+      </c>
+      <c r="D75" t="n">
+        <v>8.611442937820707e-07</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.0001732414073829026</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.9998258974482963</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60320.fa</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.9986461513147774</v>
+      </c>
+      <c r="C76" t="n">
+        <v>6.37432426649492e-12</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.0001843809747402238</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.00116946770410795</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.9986461513147774</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60370.fa</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.9991018491311541</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1.789267935567128e-13</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.0001690463529293846</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.0007291045157375946</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.9991018491311541</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60466.fa</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.9959730488651439</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2.305184231047629e-13</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.0003944348090420447</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.003632516325583451</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.9959730488651439</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60605.fa</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.9990223658624257</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2.990842881084799e-13</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.0009671401329411851</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.049400433391118e-05</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.9990223658624257</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60882.fa</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.9998447202946038</v>
+      </c>
+      <c r="C80" t="n">
+        <v>6.091514565504997e-13</v>
+      </c>
+      <c r="D80" t="n">
+        <v>6.19528800987231e-05</v>
+      </c>
+      <c r="E80" t="n">
+        <v>9.332682468839436e-05</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.9998447202946038</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60999.fa</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.999681680261469</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1.623292300851946e-13</v>
+      </c>
+      <c r="D81" t="n">
+        <v>6.523799962424004e-06</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.0003117959384064437</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.999681680261469</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT61376.fa</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.9996637244543772</v>
+      </c>
+      <c r="C82" t="n">
+        <v>4.57455389663183e-13</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.0002026542290072851</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.0001336213161580538</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.9996637244543772</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT61623.fa</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.9999646671293426</v>
+      </c>
+      <c r="C83" t="n">
+        <v>4.662095821820866e-14</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.454297114240251e-05</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2.078989946842636e-05</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.9999646671293426</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT61658.fa</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.9999225290067403</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2.220414839425818e-14</v>
+      </c>
+      <c r="D84" t="n">
+        <v>8.41216653859872e-07</v>
+      </c>
+      <c r="E84" t="n">
+        <v>7.662977658360488e-05</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.9999225290067403</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT61708.fa</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.0181183747687497</v>
+      </c>
+      <c r="C85" t="n">
+        <v>7.610616752904476e-14</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1.096119884466263e-09</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.9818816241350543</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.9818816241350543</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>g__Succiniclasticum</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>g__Succiniclasticum</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT61749.fa</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.04111435387385031</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2.219870961837567e-14</v>
+      </c>
+      <c r="D86" t="n">
+        <v>4.904595778398764e-10</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.9588856456356679</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.9588856456356679</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>g__Succiniclasticum</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>g__Succiniclasticum</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT61937.fa</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.9995062274181704</v>
+      </c>
+      <c r="C87" t="n">
+        <v>6.338075639775395e-13</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.0002279461482403113</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.0002658264329554976</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.9995062274181704</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT62054.fa</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.9992639067448589</v>
+      </c>
+      <c r="C88" t="n">
+        <v>4.502263902830531e-13</v>
+      </c>
+      <c r="D88" t="n">
+        <v>9.120445382494451e-05</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.0006448888008658518</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.9992639067448589</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT62117.fa</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.9998784071295216</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2.220399089330349e-14</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1.411876315236719e-05</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.0001074741073037999</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.9998784071295216</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT62393.fa</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.0408504462138496</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2.219860792147529e-14</v>
+      </c>
+      <c r="D90" t="n">
+        <v>4.974753331303171e-10</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.9591495532886529</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.9591495532886529</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>g__Succiniclasticum</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>g__Succiniclasticum</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT62444.fa</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.9999024361380301</v>
+      </c>
+      <c r="C91" t="n">
+        <v>4.206800309114024e-14</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1.239118600185387e-06</v>
+      </c>
+      <c r="E91" t="n">
+        <v>9.632474332760102e-05</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.9999024361380301</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT62509.fa</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.999058935133194</v>
+      </c>
+      <c r="C92" t="n">
+        <v>3.359016299735617e-14</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1.765149039071237e-05</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.0009234133763817141</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.999058935133194</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT62666.fa</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.9987752991529467</v>
+      </c>
+      <c r="C93" t="n">
+        <v>6.462844881439881e-14</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.001195100251970624</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2.96005950181557e-05</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.9987752991529467</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6679.fa</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.999764554317052</v>
+      </c>
+      <c r="C94" t="n">
+        <v>5.405224599714584e-13</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.0001938146704592315</v>
+      </c>
+      <c r="E94" t="n">
+        <v>4.163101194820564e-05</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.999764554317052</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT69771.fa</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.9998170055569349</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1.607257360718497e-13</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1.29694067630069e-07</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.0001828647488368508</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.9998170055569349</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7031.fa</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.9995721888813894</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2.220238100823976e-14</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1.223919871887976e-07</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.0004276887266011667</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.9995721888813894</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7040.fa</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.9998515823466562</v>
+      </c>
+      <c r="C97" t="n">
+        <v>6.897985345189441e-12</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2.044363124198801e-06</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.0001463732833217774</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.9998515823466562</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT72119.fa</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.9999874303883587</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2.220441749338155e-14</v>
+      </c>
+      <c r="D98" t="n">
+        <v>9.853300514950969e-07</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.158428156768797e-05</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.9999874303883587</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT72127.fa</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.9995253668927698</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2.220200246711318e-14</v>
+      </c>
+      <c r="D99" t="n">
+        <v>5.56025686685563e-06</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.000469072850341196</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.9995253668927698</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT74329.fa</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.9995290010917203</v>
+      </c>
+      <c r="C100" t="n">
+        <v>5.770908373949152e-13</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.0004004360225586283</v>
+      </c>
+      <c r="E100" t="n">
+        <v>7.056288514398244e-05</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.9995290010917203</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT74380.fa</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.9997540666750645</v>
+      </c>
+      <c r="C101" t="n">
+        <v>4.323709096420356e-14</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.0002244244638085808</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2.150886108369035e-05</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.9997540666750645</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT75402.fa</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.9996234599267293</v>
+      </c>
+      <c r="C102" t="n">
+        <v>5.81504364236057e-13</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.0002914942668650295</v>
+      </c>
+      <c r="E102" t="n">
+        <v>8.504580582424305e-05</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.9996234599267293</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT75430.fa</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.9998344707508473</v>
+      </c>
+      <c r="C103" t="n">
+        <v>6.834500480515908e-14</v>
+      </c>
+      <c r="D103" t="n">
+        <v>8.051500696513033e-06</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.0001574777483877292</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.9998344707508473</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT75522.fa</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.9990778467605775</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1.032727416359263e-12</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.0007416856892262304</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.0001804675491634494</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.9990778467605775</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT79350.fa</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.9999528922957768</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2.220429703512723e-14</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1.740831652750698e-06</v>
+      </c>
+      <c r="E105" t="n">
+        <v>4.536687254815153e-05</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.9999528922957768</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80385.fa</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.9990138844781207</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2.363150928801857e-12</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.539524736369235e-05</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.00097072027215245</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.9990138844781207</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80453.fa</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.9986408142676126</v>
+      </c>
+      <c r="C107" t="n">
+        <v>6.754704763242991e-14</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2.513725937762668e-05</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.001334048472942181</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.9986408142676126</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80718.fa</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.9999654904801033</v>
+      </c>
+      <c r="C108" t="n">
+        <v>3.4679252886132e-13</v>
+      </c>
+      <c r="D108" t="n">
+        <v>8.37817649150689e-06</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2.613134305836135e-05</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.9999654904801033</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80771.fa</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.998124557356629</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1.376563343047951e-13</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.893337584665968e-05</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.001856509267386789</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.998124557356629</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80816.fa</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.9998978449023022</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1.440042596378796e-13</v>
+      </c>
+      <c r="D110" t="n">
+        <v>7.711319446142973e-05</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2.504190309236637e-05</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.9998978449023022</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81679.fa</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.9994188425187587</v>
+      </c>
+      <c r="C111" t="n">
+        <v>8.046688245777051e-14</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.0005478988464469828</v>
+      </c>
+      <c r="E111" t="n">
+        <v>3.325863471390935e-05</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.9994188425187587</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81926.fa</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.9998970399139777</v>
+      </c>
+      <c r="C112" t="n">
+        <v>6.275916637702096e-13</v>
+      </c>
+      <c r="D112" t="n">
+        <v>4.03004460579689e-05</v>
+      </c>
+      <c r="E112" t="n">
+        <v>6.265963933674997e-05</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.9998970399139777</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81946.fa</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.9980106478041086</v>
+      </c>
+      <c r="C113" t="n">
+        <v>3.821948041876634e-12</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.0001645216705369936</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.001824830521532375</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.9980106478041086</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81987.fa</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.9994188425187587</v>
+      </c>
+      <c r="C114" t="n">
+        <v>8.046688245777051e-14</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.0005478988464469828</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3.325863471390935e-05</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.9994188425187587</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82039.fa</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.9999458916378577</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2.549185619380186e-14</v>
+      </c>
+      <c r="D115" t="n">
+        <v>2.278679027187542e-07</v>
+      </c>
+      <c r="E115" t="n">
+        <v>5.388049421407368e-05</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.9999458916378577</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82105.fa</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.9999419032349516</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2.220416989259388e-14</v>
+      </c>
+      <c r="D116" t="n">
+        <v>8.087327302995232e-07</v>
+      </c>
+      <c r="E116" t="n">
+        <v>5.728803229599729e-05</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.9999419032349516</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82160.fa</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0.999791901344195</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2.090988853007457e-13</v>
+      </c>
+      <c r="D117" t="n">
+        <v>7.668716163527368e-05</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.0001314114939607037</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.999791901344195</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82436.fa</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0.9961406036069258</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2.219890453059581e-14</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.0002791830175650647</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.003580213375486988</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.9961406036069258</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82468.fa</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0.9997054892218761</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2.220299206380056e-14</v>
+      </c>
+      <c r="D119" t="n">
+        <v>2.479415259101258e-06</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.000292031362842667</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.9997054892218761</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82509.fa</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0.9998516485798118</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2.220375446516044e-14</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1.200562186646979e-06</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.0001471508579794644</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.9998516485798118</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82562.fa</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0.9998516485798118</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2.220375446516044e-14</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1.200562186646979e-06</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.0001471508579794644</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.9998516485798118</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82635.fa</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0.9999065330042654</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2.220407844865621e-14</v>
+      </c>
+      <c r="D122" t="n">
+        <v>9.212351349607279e-07</v>
+      </c>
+      <c r="E122" t="n">
+        <v>9.254576057753146e-05</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.9999065330042654</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82654.fa</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0.9998862648745368</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2.220398369127864e-14</v>
+      </c>
+      <c r="D123" t="n">
+        <v>9.205080457257707e-06</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.0001045300449837277</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.9998862648745368</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82703.fa</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0.9999251184859116</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2.220407875844712e-14</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1.144637281915438e-06</v>
+      </c>
+      <c r="E124" t="n">
+        <v>7.373687678442947e-05</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.9999251184859116</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82738.fa</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0.9999707996416259</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2.72593606291407e-14</v>
+      </c>
+      <c r="D125" t="n">
+        <v>5.578151733925472e-07</v>
+      </c>
+      <c r="E125" t="n">
+        <v>2.864254317320725e-05</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.9999707996416259</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82744.fa</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0.9995196535165358</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2.301560728483822e-13</v>
+      </c>
+      <c r="D126" t="n">
+        <v>2.087854841469864e-05</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.0004594679348193983</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.9995196535165358</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT84598.fa</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0.9840887154435807</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1.412740515933228e-10</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.01497017072162127</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.0009411136935241081</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.9840887154435807</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT84613.fa</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0.9999624006230939</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2.220430219127199e-14</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2.169240539913417e-05</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1.590697148473116e-05</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.9999624006230939</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT85104.fa</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0.9995356880083163</v>
+      </c>
+      <c r="C129" t="n">
+        <v>3.166433731816049e-13</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1.322297535969773e-05</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.000451089016007435</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.9995356880083163</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT85904.fa</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0.1182762966154791</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2.22000484322412e-14</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1.625809148409012e-11</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.8817237033682406</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.8817237033682406</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>g__Succiniclasticum</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>g__Succiniclasticum</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT85919.fa</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0.002115819934865142</v>
+      </c>
+      <c r="C131" t="n">
+        <v>7.012652560973925e-12</v>
+      </c>
+      <c r="D131" t="n">
+        <v>8.144370089826739e-10</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.9978841792436851</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.9978841792436851</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>g__Succiniclasticum</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>g__Succiniclasticum</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT86870.fa</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0.9999711197846956</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2.220434354506718e-14</v>
+      </c>
+      <c r="D132" t="n">
+        <v>6.985603045048911e-06</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2.189461223715375e-05</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.9999711197846956</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT87479.fa</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0.9999604237385685</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2.220432604696429e-14</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.640090604810349e-07</v>
+      </c>
+      <c r="E133" t="n">
+        <v>3.94122523487476e-05</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.9999604237385685</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT87575.fa</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0.9999783619404119</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2.220438931688773e-14</v>
+      </c>
+      <c r="D134" t="n">
+        <v>3.214845541490816e-07</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2.131657501169265e-05</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.9999783619404119</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT87833.fa</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0.9999558293867863</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2.220430949760212e-14</v>
+      </c>
+      <c r="D135" t="n">
+        <v>5.851974314910457e-08</v>
+      </c>
+      <c r="E135" t="n">
+        <v>4.411209344839855e-05</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.9999558293867863</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88081.fa</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0.9999514199011753</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2.220422904576813e-14</v>
+      </c>
+      <c r="D136" t="n">
+        <v>5.059115247916017e-07</v>
+      </c>
+      <c r="E136" t="n">
+        <v>4.807418727753107e-05</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.9999514199011753</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT88255.fa</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B137" t="n">
         <v>0.9999228581804857</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C137" t="n">
         <v>2.220418878647714e-14</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D137" t="n">
         <v>1.418880975040988e-07</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E137" t="n">
         <v>7.69999313946752e-05</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F137" t="n">
         <v>0.9999228581804857</v>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>g__Acidaminococcus</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88680.fa</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0.9999779745605747</v>
+      </c>
+      <c r="C138" t="n">
+        <v>4.342976578386097e-14</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1.135525060259681e-06</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2.088991432159079e-05</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.9999779745605747</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88995.fa</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0.9999514199011753</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2.220422904576813e-14</v>
+      </c>
+      <c r="D139" t="n">
+        <v>5.059115247916017e-07</v>
+      </c>
+      <c r="E139" t="n">
+        <v>4.807418727753107e-05</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.9999514199011753</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89180.fa</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0.9998387831828696</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2.220375922357499e-14</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1.39634905839405e-06</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.0001598204680498304</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.9998387831828696</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89206.fa</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0.9998387831828696</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2.220375922357499e-14</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1.39634905839405e-06</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.0001598204680498304</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.9998387831828696</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89239.fa</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0.9999044466716385</v>
+      </c>
+      <c r="C142" t="n">
+        <v>5.345619082619782e-13</v>
+      </c>
+      <c r="D142" t="n">
+        <v>2.782741564448983e-06</v>
+      </c>
+      <c r="E142" t="n">
+        <v>9.277058626250059e-05</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.9999044466716385</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89279.fa</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0.99988105220352</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2.220406738456248e-14</v>
+      </c>
+      <c r="D143" t="n">
+        <v>7.400633024234615e-07</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.000118207733155364</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.99988105220352</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89290.fa</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0.9998387831828696</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2.220375922357499e-14</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.39634905839405e-06</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.0001598204680498304</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.9998387831828696</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89315.fa</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0.9998748117261159</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2.220394702049509e-14</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1.174893111734723e-06</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.0001240133807500618</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.9998748117261159</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89344.fa</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0.9999899133914538</v>
+      </c>
+      <c r="C146" t="n">
+        <v>6.870207414603544e-14</v>
+      </c>
+      <c r="D146" t="n">
+        <v>3.086319569286587e-06</v>
+      </c>
+      <c r="E146" t="n">
+        <v>7.00028890805988e-06</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.9999899133914538</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89353.fa</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0.9998387831828696</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2.220375922357499e-14</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.39634905839405e-06</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.0001598204680498304</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.9998387831828696</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89416.fa</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0.9999811815044074</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2.220439897890594e-14</v>
+      </c>
+      <c r="D148" t="n">
+        <v>4.005403774307416e-06</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1.481309179608324e-05</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.9999811815044074</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89571.fa</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0.9997284050684916</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1.114233650970573e-13</v>
+      </c>
+      <c r="D149" t="n">
+        <v>3.657417040786005e-07</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.0002712291896929158</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.9997284050684916</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89719.fa</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0.9998387831828696</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2.220375922357499e-14</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1.39634905839405e-06</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.0001598204680498304</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.9998387831828696</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89868.fa</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0.9998881427268438</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2.220395231634184e-14</v>
+      </c>
+      <c r="D151" t="n">
+        <v>5.352925797242389e-07</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.0001113219805542967</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.9998881427268438</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89896.fa</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0.9999701846447521</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2.22043693554229e-14</v>
+      </c>
+      <c r="D152" t="n">
+        <v>9.829619027918376e-06</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1.99857361977249e-05</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.9999701846447521</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90087.fa</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0.9998881427268438</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2.220395231634184e-14</v>
+      </c>
+      <c r="D153" t="n">
+        <v>5.352925797242389e-07</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.0001113219805542967</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.9998881427268438</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90109.fa</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0.9998387831828696</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2.220375922357499e-14</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.39634905839405e-06</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.0001598204680498304</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.9998387831828696</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90165.fa</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0.9998387831828696</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2.220375922357499e-14</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.39634905839405e-06</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.0001598204680498304</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.9998387831828696</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90191.fa</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0.9998748117261159</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2.220394702049509e-14</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1.174893111734723e-06</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.0001240133807500618</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.9998748117261159</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90290.fa</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>0.9997816703764376</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2.993427244472033e-14</v>
+      </c>
+      <c r="D157" t="n">
+        <v>2.229793189063153e-07</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.00021810664421352</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.9997816703764376</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90323.fa</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0.9998881427268438</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2.220395231634184e-14</v>
+      </c>
+      <c r="D158" t="n">
+        <v>5.352925797242389e-07</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.0001113219805542967</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.9998881427268438</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90479.fa</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0.9999799537157962</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2.220438568013049e-14</v>
+      </c>
+      <c r="D159" t="n">
+        <v>4.393536925895741e-07</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1.960693048904843e-05</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.9999799537157962</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90502.fa</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0.9997284050684916</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1.114233650970573e-13</v>
+      </c>
+      <c r="D160" t="n">
+        <v>3.657417040786005e-07</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.0002712291896929158</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.9997284050684916</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90506.fa</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0.9998387831828696</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2.220375922357499e-14</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1.39634905839405e-06</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.0001598204680498304</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.9998387831828696</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90686.fa</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0.9995152852248349</v>
+      </c>
+      <c r="C162" t="n">
+        <v>8.861133903318404e-13</v>
+      </c>
+      <c r="D162" t="n">
+        <v>2.058938684854507e-06</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.0004826558355942529</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.9995152852248349</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90699.fa</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0.9998881427268438</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2.220395231634184e-14</v>
+      </c>
+      <c r="D163" t="n">
+        <v>5.352925797242389e-07</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.0001113219805542967</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.9998881427268438</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90976.fa</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0.9998387831828696</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2.220375922357499e-14</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1.39634905839405e-06</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.0001598204680498304</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.9998387831828696</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91042.fa</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0.9998881427268438</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2.220395231634184e-14</v>
+      </c>
+      <c r="D165" t="n">
+        <v>5.352925797242389e-07</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.0001113219805542967</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.9998881427268438</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91118.fa</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>0.9998387831828696</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2.220375922357499e-14</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.39634905839405e-06</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.0001598204680498304</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.9998387831828696</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91137.fa</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>0.9998387831828696</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2.220375922357499e-14</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1.39634905839405e-06</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.0001598204680498304</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.9998387831828696</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9659.fa</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>0.99988108718901</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2.220417029596056e-14</v>
+      </c>
+      <c r="D168" t="n">
+        <v>8.803328518110847e-07</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.0001180324781158656</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.99988108718901</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>g__Acidaminococcus</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
         <is>
           <t>g__Acidaminococcus</t>
         </is>
